--- a/downloaded_files/MCNS202_Lecture-35641.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed essam ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -537,7 +546,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -714,7 +723,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -746,7 +755,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -778,7 +787,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -810,7 +819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -842,7 +851,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -874,7 +883,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -891,6 +900,38 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35641.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Khaled Ali Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
     <x:t>1240010</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -691,7 +700,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4152590625</x:v>
+        <x:v>45919.9982841088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45908.4152590625</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35641.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed essam ahmed mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1230159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسلام عمرو احمد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islam Amr Ahmed Nassar</x:t>
+  </x:si>
+  <x:si>
     <x:t>2250002</x:t>
   </x:si>
   <x:si>
@@ -93,7 +102,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1230139</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45925.2543621528</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35641.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35641.xlsx
@@ -965,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/MCNS202_Lecture-35641.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Islam Amr Ahmed Nassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>2250002</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,7 +571,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -805,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45927.7984287384</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.5772409375</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
